--- a/Estadisticas/Grafos Aleatorios.xlsx
+++ b/Estadisticas/Grafos Aleatorios.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="6915" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="600y40" sheetId="1" r:id="rId1"/>
-    <sheet name="600y60" sheetId="3" r:id="rId2"/>
-    <sheet name="600y90" sheetId="4" r:id="rId3"/>
+    <sheet name="600y40" sheetId="3" r:id="rId1"/>
+    <sheet name="600y60" sheetId="2" r:id="rId2"/>
+    <sheet name="600y90" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>Estadistica Grafo Aleatorio 600 Nodos y 40% Ady</t>
-  </si>
-  <si>
-    <t>Matula</t>
-  </si>
-  <si>
-    <t>Estadistica Grafo Aleatorio 600 Nodos y 60% Ady</t>
-  </si>
-  <si>
     <t>Estadistica Grafo Aleatorio 600 Nodos y 90% Ady</t>
-  </si>
-  <si>
-    <t>Welsh-Powell</t>
   </si>
   <si>
     <t>Cantidad de colores</t>
@@ -42,17 +33,29 @@
     <t>Frec. Rel SA</t>
   </si>
   <si>
+    <t>Welsh-Powell</t>
+  </si>
+  <si>
     <t>Sec. Rel. WP</t>
   </si>
   <si>
+    <t>Matula</t>
+  </si>
+  <si>
     <t>Sec. Rel. M</t>
+  </si>
+  <si>
+    <t>Estadistica Grafo Aleatorio 600 Nodos y 40% Ady</t>
+  </si>
+  <si>
+    <t>Estadistica Grafo Aleatorio 600 Nodos y 60% Ady</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,30 +96,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,9 +132,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
-  <c:style val="42"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -147,9 +159,10 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y40'!$B$3</c:f>
@@ -266,15 +279,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E944-46C4-BCB6-76B2EB33DF24}"/>
+              <c16:uniqueId val="{00000001-E944-46C4-BCB6-76B2EB33DF24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y40'!$C$3</c:f>
@@ -391,15 +405,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E944-46C4-BCB6-76B2EB33DF24}"/>
+              <c16:uniqueId val="{00000002-E944-46C4-BCB6-76B2EB33DF24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y40'!$D$3</c:f>
@@ -516,41 +531,202 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E944-46C4-BCB6-76B2EB33DF24}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114390912"/>
-        <c:axId val="114392448"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1299013776"/>
+        <c:axId val="-1299008336"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y40'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y40'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>74</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y40'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>74</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E944-46C4-BCB6-76B2EB33DF24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114390912"/>
+        <c:axId val="-1299013776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114392448"/>
+        <c:crossAx val="-1299008336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114392448"/>
+        <c:axId val="-1299008336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3800"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114390912"/>
+        <c:crossAx val="-1299013776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,13 +739,15 @@
           <c:yMode val="edge"/>
           <c:x val="0.86350687312736529"/>
           <c:y val="0.44071167333591488"/>
-          <c:w val="0.13649312687263476"/>
-          <c:h val="0.11857648121853624"/>
+          <c:w val="0.13649317700096797"/>
+          <c:h val="0.15006567125167444"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -581,16 +759,27 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
-  <c:style val="42"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y60'!$B$3</c:f>
@@ -743,15 +932,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-364C-4E08-9919-168C5CBFB21E}"/>
+              <c16:uniqueId val="{00000001-364C-4E08-9919-168C5CBFB21E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y60'!$C$3</c:f>
@@ -904,15 +1094,16 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-364C-4E08-9919-168C5CBFB21E}"/>
+              <c16:uniqueId val="{00000002-364C-4E08-9919-168C5CBFB21E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y60'!$D$3</c:f>
@@ -1065,41 +1256,238 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-364C-4E08-9919-168C5CBFB21E}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77331456"/>
-        <c:axId val="114696960"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1077601776"/>
+        <c:axId val="-1077602864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y60'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y60'!$A$4:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>113</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y60'!$A$4:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>113</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-364C-4E08-9919-168C5CBFB21E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77331456"/>
+        <c:axId val="-1077601776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114696960"/>
+        <c:crossAx val="-1077602864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114696960"/>
+        <c:axId val="-1077602864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77331456"/>
+        <c:crossAx val="-1077601776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,9 +1495,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1121,781 +1511,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
-  <c:style val="42"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'600y90'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Secuencial aleatorio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'600y90'!$A$4:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'600y90'!$B$4:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1342</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1528</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>852</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3701-4649-AE33-D57620A56242}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'600y90'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Welsh-Powell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'600y90'!$A$4:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'600y90'!$D$4:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1568</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1523</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3701-4649-AE33-D57620A56242}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'600y90'!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Matula</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'600y90'!$A$4:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'600y90'!$F$4:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1255</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1575</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1563</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1416</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>673</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3701-4649-AE33-D57620A56242}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114770304"/>
-        <c:axId val="114771840"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="114770304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114771840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="114771840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1900"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114770304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1920,13 +1546,15 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y90'!$C$3</c:f>
@@ -2154,10 +1782,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y90'!$E$3</c:f>
@@ -2385,10 +2014,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'600y90'!$G$3</c:f>
@@ -2616,35 +2246,308 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="131513344"/>
-        <c:axId val="131535616"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1303221808"/>
+        <c:axId val="-1303220720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$4:$A$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>192</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>193</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>196</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>197</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>199</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>201</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>206</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>211</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>212</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>215</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>216</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>218</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>219</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>223</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>224</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$4:$A$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>192</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>193</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>196</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>197</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>199</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>201</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>206</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>211</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>212</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>215</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>216</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>218</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>219</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>223</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>224</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131513344"/>
+        <c:axId val="-1303221808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131535616"/>
+        <c:crossAx val="-1303220720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131535616"/>
+        <c:axId val="-1303220720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131513344"/>
+        <c:crossAx val="-1303221808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,12 +2555,1079 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'600y90'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial aleatorio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'600y90'!$A$4:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'600y90'!$B$4:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3701-4649-AE33-D57620A56242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'600y90'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Welsh-Powell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'600y90'!$A$4:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'600y90'!$D$4:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3701-4649-AE33-D57620A56242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'600y90'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matula</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'600y90'!$A$4:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'600y90'!$F$4:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1299018128"/>
+        <c:axId val="-1299012144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cantidad de colores</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$4:$A$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>192</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>193</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>196</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>197</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>199</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>201</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>206</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>211</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>212</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>215</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>216</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>218</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>219</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>223</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>224</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'600y90'!$A$4:$A$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>192</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>193</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>196</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>197</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>199</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>201</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>206</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>211</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>212</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>215</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>216</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>218</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>219</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>223</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>224</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3701-4649-AE33-D57620A56242}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1299018128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1299012144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1299012144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1299018128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2668,26 +3638,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2709,26 +3681,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico">
+        <xdr:cNvPr id="2" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2750,26 +3724,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>159204</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2786,20 +3756,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2814,6 +3792,1303 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="600y40"/>
+      <sheetName val="600y60"/>
+      <sheetName val="600y90"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Secuencial aleatorio</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Welsh-Powell</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Matula</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>61</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>9</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>62</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>215</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>63</v>
+          </cell>
+          <cell r="B6">
+            <v>4</v>
+          </cell>
+          <cell r="C6">
+            <v>1732</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>64</v>
+          </cell>
+          <cell r="B7">
+            <v>154</v>
+          </cell>
+          <cell r="C7">
+            <v>3652</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>65</v>
+          </cell>
+          <cell r="B8">
+            <v>993</v>
+          </cell>
+          <cell r="C8">
+            <v>3261</v>
+          </cell>
+          <cell r="D8">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>66</v>
+          </cell>
+          <cell r="B9">
+            <v>2868</v>
+          </cell>
+          <cell r="C9">
+            <v>1007</v>
+          </cell>
+          <cell r="D9">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>67</v>
+          </cell>
+          <cell r="B10">
+            <v>3516</v>
+          </cell>
+          <cell r="C10">
+            <v>120</v>
+          </cell>
+          <cell r="D10">
+            <v>415</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>68</v>
+          </cell>
+          <cell r="B11">
+            <v>1943</v>
+          </cell>
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+          <cell r="D11">
+            <v>1709</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>69</v>
+          </cell>
+          <cell r="B12">
+            <v>471</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>3379</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>70</v>
+          </cell>
+          <cell r="B13">
+            <v>48</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>2931</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>71</v>
+          </cell>
+          <cell r="B14">
+            <v>3</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>1258</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>72</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>243</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>73</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>74</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Secuencial aleatorio</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Welsh-Powell</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Matula</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>94</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>95</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>96</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>60</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>97</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>382</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>98</v>
+          </cell>
+          <cell r="B8">
+            <v>2</v>
+          </cell>
+          <cell r="C8">
+            <v>1435</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>99</v>
+          </cell>
+          <cell r="B9">
+            <v>30</v>
+          </cell>
+          <cell r="C9">
+            <v>2351</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>100</v>
+          </cell>
+          <cell r="B10">
+            <v>154</v>
+          </cell>
+          <cell r="C10">
+            <v>2588</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>101</v>
+          </cell>
+          <cell r="B11">
+            <v>691</v>
+          </cell>
+          <cell r="C11">
+            <v>2252</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>102</v>
+          </cell>
+          <cell r="B12">
+            <v>1692</v>
+          </cell>
+          <cell r="C12">
+            <v>759</v>
+          </cell>
+          <cell r="D12">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>103</v>
+          </cell>
+          <cell r="B13">
+            <v>2487</v>
+          </cell>
+          <cell r="C13">
+            <v>147</v>
+          </cell>
+          <cell r="D13">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>104</v>
+          </cell>
+          <cell r="B14">
+            <v>2522</v>
+          </cell>
+          <cell r="C14">
+            <v>21</v>
+          </cell>
+          <cell r="D14">
+            <v>198</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>105</v>
+          </cell>
+          <cell r="B15">
+            <v>1576</v>
+          </cell>
+          <cell r="C15">
+            <v>2</v>
+          </cell>
+          <cell r="D15">
+            <v>736</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>106</v>
+          </cell>
+          <cell r="B16">
+            <v>643</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>1687</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>107</v>
+          </cell>
+          <cell r="B17">
+            <v>175</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>2554</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>108</v>
+          </cell>
+          <cell r="B18">
+            <v>27</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>2375</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>109</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>1607</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>110</v>
+          </cell>
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>614</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>111</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>154</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>112</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>113</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Secuencial aleatorio</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Frec. Rel SA</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Welsh-Powell</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Sec. Rel. WP</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Matula</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Sec. Rel. M</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>192</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>2.0000000000000001E-4</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>193</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>15</v>
+          </cell>
+          <cell r="E5">
+            <v>1.5E-3</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>194</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>52</v>
+          </cell>
+          <cell r="E6">
+            <v>5.1999999999999998E-3</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>195</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>142</v>
+          </cell>
+          <cell r="E7">
+            <v>1.4200000000000001E-2</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>196</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>391</v>
+          </cell>
+          <cell r="E8">
+            <v>3.9100000000000003E-2</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>197</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="C9">
+            <v>1E-4</v>
+          </cell>
+          <cell r="D9">
+            <v>828</v>
+          </cell>
+          <cell r="E9">
+            <v>8.2799999999999999E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>198</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1E-4</v>
+          </cell>
+          <cell r="D10">
+            <v>1568</v>
+          </cell>
+          <cell r="E10">
+            <v>0.15679999999999999</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>199</v>
+          </cell>
+          <cell r="B11">
+            <v>5</v>
+          </cell>
+          <cell r="C11">
+            <v>5.0000000000000001E-4</v>
+          </cell>
+          <cell r="D11">
+            <v>1655</v>
+          </cell>
+          <cell r="E11">
+            <v>0.16550000000000001</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>200</v>
+          </cell>
+          <cell r="B12">
+            <v>28</v>
+          </cell>
+          <cell r="C12">
+            <v>2.8E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>1735</v>
+          </cell>
+          <cell r="E12">
+            <v>0.17349999999999999</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>201</v>
+          </cell>
+          <cell r="B13">
+            <v>69</v>
+          </cell>
+          <cell r="C13">
+            <v>6.8999999999999999E-3</v>
+          </cell>
+          <cell r="D13">
+            <v>1523</v>
+          </cell>
+          <cell r="E13">
+            <v>0.15229999999999999</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>202</v>
+          </cell>
+          <cell r="B14">
+            <v>187</v>
+          </cell>
+          <cell r="C14">
+            <v>1.8700000000000001E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>1196</v>
+          </cell>
+          <cell r="E14">
+            <v>0.1196</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>203</v>
+          </cell>
+          <cell r="B15">
+            <v>406</v>
+          </cell>
+          <cell r="C15">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+          <cell r="D15">
+            <v>545</v>
+          </cell>
+          <cell r="E15">
+            <v>5.45E-2</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>204</v>
+          </cell>
+          <cell r="B16">
+            <v>714</v>
+          </cell>
+          <cell r="C16">
+            <v>7.1400000000000005E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>249</v>
+          </cell>
+          <cell r="E16">
+            <v>2.4899999999999999E-2</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>205</v>
+          </cell>
+          <cell r="B17">
+            <v>1050</v>
+          </cell>
+          <cell r="C17">
+            <v>0.105</v>
+          </cell>
+          <cell r="D17">
+            <v>72</v>
+          </cell>
+          <cell r="E17">
+            <v>7.1999999999999998E-3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>206</v>
+          </cell>
+          <cell r="B18">
+            <v>1342</v>
+          </cell>
+          <cell r="C18">
+            <v>0.13420000000000001</v>
+          </cell>
+          <cell r="D18">
+            <v>17</v>
+          </cell>
+          <cell r="E18">
+            <v>1.6999999999999999E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>5</v>
+          </cell>
+          <cell r="G18">
+            <v>5.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>207</v>
+          </cell>
+          <cell r="B19">
+            <v>1528</v>
+          </cell>
+          <cell r="C19">
+            <v>0.15279999999999999</v>
+          </cell>
+          <cell r="D19">
+            <v>9</v>
+          </cell>
+          <cell r="E19">
+            <v>8.9999999999999998E-4</v>
+          </cell>
+          <cell r="F19">
+            <v>7</v>
+          </cell>
+          <cell r="G19">
+            <v>6.9999999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>208</v>
+          </cell>
+          <cell r="B20">
+            <v>1526</v>
+          </cell>
+          <cell r="C20">
+            <v>0.15260000000000001</v>
+          </cell>
+          <cell r="D20">
+            <v>1</v>
+          </cell>
+          <cell r="E20">
+            <v>1E-4</v>
+          </cell>
+          <cell r="F20">
+            <v>41</v>
+          </cell>
+          <cell r="G20">
+            <v>4.1000000000000003E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>209</v>
+          </cell>
+          <cell r="B21">
+            <v>1249</v>
+          </cell>
+          <cell r="C21">
+            <v>0.1249</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>119</v>
+          </cell>
+          <cell r="G21">
+            <v>1.1900000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>210</v>
+          </cell>
+          <cell r="B22">
+            <v>852</v>
+          </cell>
+          <cell r="C22">
+            <v>8.5199999999999998E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>263</v>
+          </cell>
+          <cell r="G22">
+            <v>2.63E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>211</v>
+          </cell>
+          <cell r="B23">
+            <v>522</v>
+          </cell>
+          <cell r="C23">
+            <v>5.2200000000000003E-2</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>552</v>
+          </cell>
+          <cell r="G23">
+            <v>5.5199999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>212</v>
+          </cell>
+          <cell r="B24">
+            <v>294</v>
+          </cell>
+          <cell r="C24">
+            <v>2.9399999999999999E-2</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>828</v>
+          </cell>
+          <cell r="G24">
+            <v>8.2799999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>213</v>
+          </cell>
+          <cell r="B25">
+            <v>156</v>
+          </cell>
+          <cell r="C25">
+            <v>1.5599999999999999E-2</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>1255</v>
+          </cell>
+          <cell r="G25">
+            <v>0.1255</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>214</v>
+          </cell>
+          <cell r="B26">
+            <v>45</v>
+          </cell>
+          <cell r="C26">
+            <v>4.4999999999999997E-3</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>1575</v>
+          </cell>
+          <cell r="G26">
+            <v>0.1575</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>215</v>
+          </cell>
+          <cell r="B27">
+            <v>17</v>
+          </cell>
+          <cell r="C27">
+            <v>1.6999999999999999E-3</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>1563</v>
+          </cell>
+          <cell r="G27">
+            <v>0.15629999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>216</v>
+          </cell>
+          <cell r="B28">
+            <v>7</v>
+          </cell>
+          <cell r="C28">
+            <v>6.9999999999999999E-4</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>1416</v>
+          </cell>
+          <cell r="G28">
+            <v>0.1416</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>217</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29">
+            <v>1E-4</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>1084</v>
+          </cell>
+          <cell r="G29">
+            <v>0.1084</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>218</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>673</v>
+          </cell>
+          <cell r="G30">
+            <v>6.7299999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>219</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>360</v>
+          </cell>
+          <cell r="G31">
+            <v>3.5999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>220</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>172</v>
+          </cell>
+          <cell r="G32">
+            <v>1.72E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>221</v>
+          </cell>
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>57</v>
+          </cell>
+          <cell r="G33">
+            <v>5.7000000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>222</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>20</v>
+          </cell>
+          <cell r="G34">
+            <v>2E-3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>223</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>9</v>
+          </cell>
+          <cell r="G35">
+            <v>8.9999999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>224</v>
+          </cell>
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+          <cell r="F36">
+            <v>1</v>
+          </cell>
+          <cell r="G36">
+            <v>1E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2859,7 +5134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2891,9 +5166,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2925,6 +5201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3100,290 +5377,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>61</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>62</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>215</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>63</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>1732</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>64</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>154</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>3652</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>65</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>993</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>3261</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>66</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>2868</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>1007</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>67</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>3516</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>120</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>68</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>1943</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>1709</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>69</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>471</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <v>3379</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>70</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>48</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>2931</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>71</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>1258</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>72</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>73</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>74</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
         <f>SUM(B4:B17)</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:D18" si="0">SUM(C4:C17)</f>
         <v>10000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3395,331 +5641,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D24" sqref="B24:D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>94</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>97</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>382</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1435</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2351</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5">
+        <v>154</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2588</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5">
+        <v>691</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2252</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1692</v>
+      </c>
+      <c r="C12" s="4">
+        <v>759</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>103</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2487</v>
+      </c>
+      <c r="C13" s="4">
+        <v>147</v>
+      </c>
+      <c r="D13" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>104</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2522</v>
+      </c>
+      <c r="C14" s="4">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>105</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1576</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>106</v>
+      </c>
+      <c r="B16" s="5">
+        <v>643</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>107</v>
+      </c>
+      <c r="B17" s="5">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>108</v>
+      </c>
+      <c r="B18" s="5">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>109</v>
+      </c>
+      <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>382</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1435</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>99</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2351</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>110</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>111</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
         <v>154</v>
       </c>
-      <c r="C10" s="1">
-        <v>2588</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>101</v>
-      </c>
-      <c r="B11" s="1">
-        <v>691</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2252</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>102</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1692</v>
-      </c>
-      <c r="C12" s="2">
-        <v>759</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>103</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2487</v>
-      </c>
-      <c r="C13" s="2">
-        <v>147</v>
-      </c>
-      <c r="D13" s="2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>112</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2522</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>105</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1576</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1">
-        <v>643</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>107</v>
-      </c>
-      <c r="B17" s="1">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>108</v>
-      </c>
-      <c r="B18" s="1">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>109</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>111</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>112</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>113</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>SUM(B4:B23)</f>
         <v>10000</v>
@@ -3732,36 +5977,6 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3773,927 +5988,926 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>192</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <f>B4/10000</f>
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f>D4/10000</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <f>F4/10000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>193</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" ref="C5:C36" si="0">B5/10000</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E36" si="1">D5/10000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G36" si="2">F5/10000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>194</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>52</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>195</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>142</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>196</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>391</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>197</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>828</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>198</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>1568</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>0.15679999999999999</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>199</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>1655</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>0.16550000000000001</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>200</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>2.8E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>1735</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>0.17349999999999999</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>201</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>69</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>1523</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>0.15229999999999999</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>202</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>187</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>1196</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>0.1196</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>203</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>406</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>545</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>5.45E-2</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>204</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>714</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>249</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>205</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>1050</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>72</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>206</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>1342</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>0.13420000000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>207</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>1528</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>0.15279999999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>9</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="5">
         <v>7</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <f t="shared" si="2"/>
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>208</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>1526</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>0.15260000000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="5">
         <v>41</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>209</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>1249</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>0.1249</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="5">
         <v>119</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <f t="shared" si="2"/>
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>852</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="5">
         <v>263</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <f t="shared" si="2"/>
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>211</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>522</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="5">
         <v>552</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <f t="shared" si="2"/>
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>212</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>294</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="5">
         <v>828</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <f t="shared" si="2"/>
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>213</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>156</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="5">
         <v>1255</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <f>F25/10000</f>
         <v>0.1255</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>214</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>45</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="5">
         <v>1575</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <f t="shared" si="2"/>
         <v>0.1575</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>215</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>17</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <v>1563</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <f t="shared" si="2"/>
         <v>0.15629999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>216</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="5">
         <v>1416</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <f t="shared" si="2"/>
         <v>0.1416</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>217</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>1084</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <f t="shared" si="2"/>
         <v>0.1084</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>218</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <v>673</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <f t="shared" si="2"/>
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>219</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <v>360</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>220</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>172</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <f t="shared" si="2"/>
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>221</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>57</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <f t="shared" si="2"/>
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>222</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>20</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>223</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>9</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>224</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>SUM(B4:B36)</f>
         <v>10000</v>
@@ -4706,33 +6920,6 @@
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
